--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1142,10 +1154,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1189,28 +1201,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1235,28 +1247,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1472,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1519,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1565,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1848,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1883,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1941,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2212,10 +2224,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2259,28 +2271,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2305,28 +2317,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2559,10 +2571,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2606,28 +2618,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2652,28 +2664,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2877,10 +2889,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2924,28 +2936,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2970,28 +2982,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3253,10 +3265,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3300,28 +3312,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3346,28 +3358,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3687,10 +3699,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3734,28 +3746,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3780,28 +3792,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4150,10 +4162,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="J139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4197,28 +4209,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4243,28 +4255,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4410,10 +4422,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4457,28 +4469,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4503,28 +4515,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4641,10 +4653,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4688,28 +4700,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4734,28 +4746,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4872,10 +4884,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
+      <c r="J164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4919,28 +4931,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4965,28 +4977,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5103,10 +5115,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
+      <c r="J172" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5150,28 +5162,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5196,28 +5208,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5305,10 +5317,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5352,28 +5364,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5398,28 +5410,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5478,10 +5490,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
+      <c r="J185" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="2" t="s">
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5525,28 +5537,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5571,28 +5583,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5651,10 +5663,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
+      <c r="J191" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
